--- a/data/G7/4.xlsx
+++ b/data/G7/4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB2E8F-EDB2-AB44-84B9-F92B6D2485F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E75705-3D8B-FB4F-B446-EC5B914A3D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{7E9D8E09-2A21-BF42-9DFB-BA0782A3F0C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,13 +47,234 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分+2</t>
+  </si>
+  <si>
+    <t>77-76</t>
+  </si>
+  <si>
+    <t>79-76</t>
+  </si>
+  <si>
+    <t>79-78</t>
+  </si>
+  <si>
+    <t>得分+1</t>
+  </si>
+  <si>
+    <t>81-78</t>
+  </si>
+  <si>
+    <t>81-80</t>
+  </si>
+  <si>
+    <t>83-80</t>
+  </si>
+  <si>
+    <t>83-83</t>
+  </si>
+  <si>
+    <t>得分+3</t>
+  </si>
+  <si>
+    <t>83-85</t>
+  </si>
+  <si>
+    <t>83-87</t>
+  </si>
+  <si>
+    <t>86-87</t>
+  </si>
+  <si>
+    <t>89-87</t>
+  </si>
+  <si>
+    <t>89-89</t>
+  </si>
+  <si>
+    <t>92-89</t>
+  </si>
+  <si>
+    <t>93-89</t>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯文-乐福</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>肖恩-利文斯顿</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>斯蒂芬-库里</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>克莱-汤普森</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,16 +291,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
-      <name val="微软雅黑"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -87,11 +309,28 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,31 +354,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,54 +707,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4947F-62A4-F343-A40C-8AAE0181553A}">
-  <dimension ref="B1:G3"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" ht="18">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8.0324074074074065E-3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.3495370370370372E-3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.8981481481481489E-3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5.0347222222222225E-3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.8263888888888887E-3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4.3749999999999995E-3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.9004629629629632E-3</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.7500000000000003E-3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3.3912037037037036E-3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.2291666666666666E-3</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://stat-nba.com/player/1862.html" xr:uid="{87ED6542-EB8A-F64F-ACDC-79CEBA0F5839}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stat-nba.com/player/2069.html" xr:uid="{B3B62FAB-5E9C-F146-A6CF-F9492237DBC1}"/>
+    <hyperlink ref="G6" r:id="rId3" display="http://stat-nba.com/player/2102.html" xr:uid="{7B7B837A-A181-8D4D-A943-2A396A7AA4AF}"/>
+    <hyperlink ref="G7" r:id="rId4" display="http://stat-nba.com/player/2102.html" xr:uid="{79416BFE-C27B-5C4D-95D3-99CF778DB0F4}"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://stat-nba.com/player/1690.html" xr:uid="{27E8DBE2-11F7-F846-8D3F-622AA30F79A8}"/>
+    <hyperlink ref="G10" r:id="rId6" display="http://stat-nba.com/player/4085.html" xr:uid="{6A49C0C6-F3CD-4B46-80BD-DE06BB6E2AA3}"/>
+    <hyperlink ref="C11" r:id="rId7" display="http://stat-nba.com/player/1862.html" xr:uid="{3845E471-B3CB-E54F-9CAC-714998236111}"/>
+    <hyperlink ref="G12" r:id="rId8" display="http://stat-nba.com/player/526.html" xr:uid="{B8A47E24-4BDD-3543-8610-6D48D1743941}"/>
+    <hyperlink ref="G13" r:id="rId9" display="http://stat-nba.com/player/3587.html" xr:uid="{B40AEC55-D58C-A341-A11F-C90EB19494DE}"/>
+    <hyperlink ref="C17" r:id="rId10" display="http://stat-nba.com/player/1862.html" xr:uid="{AD749111-6501-2341-840C-F3B575E706A3}"/>
+    <hyperlink ref="C18" r:id="rId11" display="http://stat-nba.com/player/1862.html" xr:uid="{1168330C-D917-0B46-926E-171E0842CDFC}"/>
+    <hyperlink ref="C19" r:id="rId12" display="http://stat-nba.com/player/1862.html" xr:uid="{B89F4FAE-A536-0948-9D60-3D14AE04E9A5}"/>
+    <hyperlink ref="C20" r:id="rId13" display="http://stat-nba.com/player/1862.html" xr:uid="{F93D4E0E-1C13-D844-8A67-62F603F921A3}"/>
+    <hyperlink ref="G21" r:id="rId14" display="http://stat-nba.com/player/3587.html" xr:uid="{44E9BDC9-2974-3A4B-BBD0-561047A3CB24}"/>
+    <hyperlink ref="C23" r:id="rId15" display="http://stat-nba.com/player/1690.html" xr:uid="{5230E4A6-8FFA-0C43-9803-30BB6BA67DC6}"/>
+    <hyperlink ref="C27" r:id="rId16" display="http://stat-nba.com/player/1862.html" xr:uid="{D90AB984-E7EF-094B-9300-4F3E17A46786}"/>
+    <hyperlink ref="G16" r:id="rId17" display="http://stat-nba.com/player/4085.html" xr:uid="{A441E268-06E1-054A-8DEC-3CA43F160F46}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>